--- a/labfiles/Lemonade.xlsx
+++ b/labfiles/Lemonade.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gmalc_microsoft_com/Documents/Data Science Orientation/v2/DAT101x/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="C850CAA20DB0E90F26E01494F2EB340551D5C382" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{8501969B-7EE9-45E9-8DFB-F00AB6BCAF12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{718CBD7F-954D-426D-8759-21BA16D90E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9900" xr2:uid="{E530D8CF-9006-4990-AFF7-605CCCFDACC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -42,10 +51,10 @@
     <t>Flyers</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Price</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Sales</t>
   </si>
   <si>
     <t>Sunday</t>
@@ -68,15 +77,12 @@
   <si>
     <t>Saturday</t>
   </si>
-  <si>
-    <t>=</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,19 +431,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222DEC5F-85B8-47EB-B908-7ED0D2EE7246}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -483,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>42737</v>
       </c>
@@ -507,7 +511,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>42738</v>
       </c>
@@ -530,7 +534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>42739</v>
       </c>
@@ -553,7 +557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>42740</v>
       </c>
@@ -575,11 +579,8 @@
       <c r="G6">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>42741</v>
       </c>
@@ -602,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>42742</v>
       </c>
@@ -625,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>42743</v>
       </c>
@@ -648,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>42744</v>
       </c>
@@ -671,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>42745</v>
       </c>
@@ -694,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>42746</v>
       </c>
@@ -717,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>42747</v>
       </c>
@@ -740,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>42748</v>
       </c>
@@ -763,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>42749</v>
       </c>
@@ -786,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>42750</v>
       </c>
@@ -809,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>42751</v>
       </c>
@@ -832,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>42752</v>
       </c>
@@ -855,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>42753</v>
       </c>
@@ -878,7 +879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>42754</v>
       </c>
@@ -901,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>42755</v>
       </c>
@@ -924,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>42756</v>
       </c>
@@ -947,7 +948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>42757</v>
       </c>
@@ -970,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>42758</v>
       </c>
@@ -993,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>42759</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>42760</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>42761</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>42762</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>42763</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>42764</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>42765</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>42766</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>42767</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>42768</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>42769</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>42770</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>42771</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>42772</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>42773</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>42774</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>42775</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>42776</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42777</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42778</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>42779</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>42780</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>42781</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>42782</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>42783</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>42784</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>42785</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>42786</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>42787</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>42788</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>42789</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>42790</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>42791</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>42792</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>42793</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>42794</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>42795</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>42796</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>42797</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>42798</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>42799</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>42800</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>42801</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>42802</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>42803</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>42804</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>42805</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>42806</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>42807</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>42808</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>42809</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>42810</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>42811</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>42812</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>42813</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>42814</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>42815</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>42816</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>42817</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>42818</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>42819</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>42820</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>42821</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>42822</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>42823</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>42824</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>42825</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>42826</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>42827</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>42828</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>42829</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>42830</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>42831</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>42832</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>42833</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>42834</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>42835</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>42836</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>42837</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>42838</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>42839</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>42840</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>42841</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>42842</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>42843</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>42844</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>42845</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>42846</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>42847</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>42848</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>42849</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>42850</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>42851</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>42852</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>42854</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>42855</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>42856</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>42857</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>42858</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>42859</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>42860</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>42861</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>42862</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>42863</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>42864</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>42865</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>42866</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>42867</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>42868</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>42869</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>42870</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>42871</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>42872</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>42873</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>42874</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>42875</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>42876</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>42877</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>42878</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>42879</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>42880</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>42881</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>42882</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>42883</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>42884</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>42885</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>42886</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>42887</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>42888</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>42889</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>42890</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>42891</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>42892</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>42893</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>42894</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>42895</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>42896</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>42897</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>42898</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>42899</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>42900</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>42901</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>42902</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>42903</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>42904</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>42905</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>42906</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>42907</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>42908</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>42909</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>42910</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>42911</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>42912</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>42913</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>42914</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>42915</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>42916</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>42917</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>42918</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>42919</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>42920</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>42921</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>42922</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>42923</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>42924</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>42925</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>42926</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>42927</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>42928</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>42929</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>42930</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>42931</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>42932</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>42933</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>42934</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>42935</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>42936</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>42937</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>42938</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>42939</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>42940</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>42941</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>42942</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>42943</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>42944</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>42945</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>42946</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>42947</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>42948</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>42949</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>42950</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>42951</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>42952</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>42953</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>42954</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>42955</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>42956</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>42957</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>42958</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>42959</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>42960</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>42961</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>42962</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>42963</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>42964</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>42965</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>42966</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>42967</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>42968</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>42969</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>42970</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>42971</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>42972</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>42973</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>42974</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>42975</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>42976</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>42977</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>42978</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>42979</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>42980</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>42981</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>42982</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>42983</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>42984</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>42985</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>42986</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>42987</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>42988</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>42989</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>42990</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>42991</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>42992</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>42993</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>42994</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>42995</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>42996</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>42997</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>42998</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>42999</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>43000</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>43001</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>43002</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>43003</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>43004</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>43005</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>43006</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>43007</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>43008</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>43009</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>43010</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>43011</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>43012</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>43013</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>43014</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>43015</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>43016</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>43017</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>43018</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>43019</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>43020</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>43021</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>43022</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>43023</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>43024</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>43025</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>43026</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>43027</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>43028</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>43029</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>43030</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>43031</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>43032</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>43033</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>43034</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>43035</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>43036</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>43037</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>43038</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>43039</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>43040</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>43041</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>43042</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>43043</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>43044</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>43045</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>43046</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>43047</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>43048</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>43049</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>43050</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>43051</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>43052</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>43053</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>43054</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>43055</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>43056</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>43057</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>43058</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>43059</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>43060</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>43061</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>43062</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>43063</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>43064</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>43065</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>43066</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>43067</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>43068</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>43069</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>43070</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>43071</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>43072</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>43073</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>43074</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>43075</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>43076</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>43077</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>43078</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>43079</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>43080</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>43081</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>43082</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>43083</v>
       </c>
@@ -8468,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>43084</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>43085</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>43086</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>43087</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>43088</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>43089</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>43090</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>43091</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>43092</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>43093</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>43094</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>43095</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>43096</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>43097</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>43098</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>43099</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>43100</v>
       </c>
